--- a/log-service/downloads_calendar/First_Level_Schedule_7675.xlsx
+++ b/log-service/downloads_calendar/First_Level_Schedule_7675.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="159">
   <si>
     <t>Оперативный календарно-сетевой график выполнения ПИР/ Исполнение плана Оперативного календарно-сетевого графика выполнения ПИР</t>
   </si>
@@ -26,13 +26,13 @@
     <t>Текущая дата (дата предоставления отчета):</t>
   </si>
   <si>
-    <t>05.06.2024</t>
+    <t>24.06.2024</t>
   </si>
   <si>
     <t>Объект капитального строительства:</t>
   </si>
   <si>
-    <t>Обустройство Байкаловского нефтегазоконденсатного месторождения. Инженерная подготовка кустовой площадки №1</t>
+    <t>Обустройство Байкаловского нефтегазоконденсатного месторождения. Обустройство кустовой площадки №2</t>
   </si>
   <si>
     <t>Подрядная организация:</t>
@@ -146,7 +146,7 @@
     <t>Инженерные изыскания (полевые работы)</t>
   </si>
   <si>
-    <t>12.07.2024</t>
+    <t>03.09.2024</t>
   </si>
   <si>
     <t>1.2</t>
@@ -155,7 +155,10 @@
     <t>Инженерные изыскания (камеральные работы) - выдача отчета</t>
   </si>
   <si>
-    <t>13.08.2024</t>
+    <t>15.08.2024</t>
+  </si>
+  <si>
+    <t>18.10.2024</t>
   </si>
   <si>
     <t>1.3</t>
@@ -164,7 +167,22 @@
     <t>Инженерные изыскания (камеральные работы) согласование отчета</t>
   </si>
   <si>
-    <t>14.10.2024</t>
+    <t>09.12.2024</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Инженерно-экологические изыскания</t>
+  </si>
+  <si>
+    <t>09.01.2025</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Историко-культурные изыскания</t>
   </si>
   <si>
     <t>2. Рабочая документация</t>
@@ -176,7 +194,7 @@
     <t>Рабочая документация (60%, выдача документации ОГ)</t>
   </si>
   <si>
-    <t>03.09.2024</t>
+    <t>09.10.2024</t>
   </si>
   <si>
     <t>2.2</t>
@@ -185,7 +203,7 @@
     <t>Рабочая документация (30%, согласование документации с ОГ и УВЭ)</t>
   </si>
   <si>
-    <t>05.11.2024</t>
+    <t>03.03.2025</t>
   </si>
   <si>
     <t>2.3</t>
@@ -194,7 +212,10 @@
     <t>Рабочая документация  (5%, выдача сметной документации ОГ)</t>
   </si>
   <si>
-    <t>02.10.2024</t>
+    <t>23.12.2024</t>
+  </si>
+  <si>
+    <t>07.02.2025</t>
   </si>
   <si>
     <t>2.4</t>
@@ -203,7 +224,7 @@
     <t>Рабочая документация  (5%, согласование сметной документации с ОГ и УВЭ)</t>
   </si>
   <si>
-    <t>02.12.2024</t>
+    <t>03.04.2025</t>
   </si>
   <si>
     <t>3. Проектная документация</t>
@@ -215,7 +236,7 @@
     <t>Проектная документация (60%, выдача документации ОГ)</t>
   </si>
   <si>
-    <t>04.10.2024</t>
+    <t>11.02.2025</t>
   </si>
   <si>
     <t>3.2</t>
@@ -224,7 +245,7 @@
     <t>Проектная документация (20%, согласование документации с ОГ и УВЭ)</t>
   </si>
   <si>
-    <t>03.12.2024</t>
+    <t>02.05.2025</t>
   </si>
   <si>
     <t>3.3</t>
@@ -233,211 +254,232 @@
     <t>Проектная документация (20%, проведение внешних экспертиз)</t>
   </si>
   <si>
+    <t>01.09.2025</t>
+  </si>
+  <si>
+    <t>4. Землеустроительные работы</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Землеустроительная документация</t>
+  </si>
+  <si>
+    <t>09.07.2025</t>
+  </si>
+  <si>
+    <t>5. Прочие работы</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Проект санитарно-защитных зон промышленного объекта</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Разработка рыбохозяйственного раздела</t>
+  </si>
+  <si>
+    <t>20.06.2025</t>
+  </si>
+  <si>
+    <t>Этап строительства 2</t>
+  </si>
+  <si>
+    <t>6. Инженерные изыскания</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>14.01.2025</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>26.12.2024</t>
+  </si>
+  <si>
     <t>02.04.2025</t>
   </si>
   <si>
-    <t>4. Землеустроительные работы</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>Землеустроительная документация</t>
-  </si>
-  <si>
-    <t>03.02.2025</t>
-  </si>
-  <si>
-    <t>Этап строительства 2</t>
-  </si>
-  <si>
-    <t>5. Инженерные изыскания</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>03.10.2024</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>6. Рабочая документация</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>24.09.2024</t>
-  </si>
-  <si>
-    <t>15.10.2024</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>09.01.2025</t>
-  </si>
-  <si>
     <t>6.3</t>
   </si>
   <si>
-    <t>18.11.2024</t>
+    <t>03.06.2025</t>
   </si>
   <si>
     <t>6.4</t>
   </si>
   <si>
-    <t>17.01.2025</t>
-  </si>
-  <si>
-    <t>7. Проектная документация</t>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>7. Рабочая документация</t>
   </si>
   <si>
     <t>7.1</t>
   </si>
   <si>
-    <t>20.11.2024</t>
+    <t>24.03.2025</t>
   </si>
   <si>
     <t>7.2</t>
   </si>
   <si>
-    <t>20.01.2025</t>
+    <t>14.07.2025</t>
   </si>
   <si>
     <t>7.3</t>
   </si>
   <si>
-    <t>20.05.2025</t>
-  </si>
-  <si>
-    <t>8. Землеустроительные работы</t>
+    <t>14.05.2025</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>11.08.2025</t>
+  </si>
+  <si>
+    <t>8. Проектная документация</t>
   </si>
   <si>
     <t>8.1</t>
   </si>
   <si>
-    <t>20.03.2025</t>
+    <t>17.07.2025</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>06.10.2025</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>03.02.2026</t>
+  </si>
+  <si>
+    <t>9. Землеустроительные работы</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>09.01.2026</t>
+  </si>
+  <si>
+    <t>10. Прочие работы</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>03.12.2025</t>
   </si>
   <si>
     <t>Этап строительства 3</t>
   </si>
   <si>
-    <t>9. Инженерные изыскания</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>21.08.2024</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>01.11.2024</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>10. Рабочая документация</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>03.03.2025</t>
-  </si>
-  <si>
-    <t>11. Проектная документация</t>
+    <t>11. Инженерные изыскания</t>
   </si>
   <si>
     <t>11.1</t>
   </si>
   <si>
+    <t>05.03.2025</t>
+  </si>
+  <si>
     <t>11.2</t>
   </si>
   <si>
+    <t>28.02.2025</t>
+  </si>
+  <si>
+    <t>14.04.2025</t>
+  </si>
+  <si>
     <t>11.3</t>
   </si>
   <si>
+    <t>02.06.2025</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>12. Рабочая документация</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>13.05.2025</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
     <t>03.07.2025</t>
   </si>
   <si>
-    <t>12. Землеустроительные работы</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>05.05.2025</t>
-  </si>
-  <si>
-    <t>Этап строительства 4</t>
-  </si>
-  <si>
-    <t>13. Инженерные изыскания</t>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>10.06.2025</t>
+  </si>
+  <si>
+    <t>04.08.2025</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>09.09.2025</t>
+  </si>
+  <si>
+    <t>13. Проектная документация</t>
   </si>
   <si>
     <t>13.1</t>
   </si>
   <si>
-    <t>30.09.2024</t>
-  </si>
-  <si>
-    <t>08.11.2024</t>
+    <t>30.04.2025</t>
   </si>
   <si>
     <t>13.2</t>
   </si>
   <si>
-    <t>04.12.2024</t>
+    <t>15.09.2025</t>
   </si>
   <si>
     <t>13.3</t>
   </si>
   <si>
-    <t>14. Рабочая документация</t>
+    <t>13.01.2026</t>
+  </si>
+  <si>
+    <t>14. Землеустроительные работы</t>
   </si>
   <si>
     <t>14.1</t>
   </si>
   <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>17.02.2025</t>
-  </si>
-  <si>
-    <t>14.3</t>
-  </si>
-  <si>
-    <t>05.02.2025</t>
-  </si>
-  <si>
-    <t>14.4</t>
-  </si>
-  <si>
-    <t>07.04.2025</t>
-  </si>
-  <si>
-    <t>15. Проектная документация</t>
+    <t>15. Прочие работы</t>
   </si>
   <si>
     <t>15.1</t>
@@ -446,22 +488,7 @@
     <t>15.2</t>
   </si>
   <si>
-    <t>01.04.2025</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>04.08.2025</t>
-  </si>
-  <si>
-    <t>16. Землеустроительные работы</t>
-  </si>
-  <si>
-    <t>16.1</t>
-  </si>
-  <si>
-    <t>02.06.2025</t>
+    <t>03.11.2025</t>
   </si>
 </sst>
 </file>
@@ -602,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:O83"/>
+  <dimension ref="B1:O81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -918,11 +945,11 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -932,59 +959,65 @@
     <row r="21" ht="45.0" customHeight="true">
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" ht="25.0" customHeight="true">
-      <c r="B22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" ht="50.0" customHeight="true">
+    <row r="22" ht="45.0" customHeight="true">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" ht="45.0" customHeight="true">
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="8" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="8" t="s">
@@ -995,29 +1028,23 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" ht="50.0" customHeight="true">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="8" t="s">
+    <row r="24" ht="25.0" customHeight="true">
+      <c r="B24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
     </row>
     <row r="25" ht="50.0" customHeight="true">
       <c r="B25" s="6"/>
@@ -1032,11 +1059,11 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -1056,7 +1083,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="8" t="s">
@@ -1067,175 +1094,189 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" ht="25.0" customHeight="true">
-      <c r="B27" s="9" t="s">
+    <row r="27" ht="50.0" customHeight="true">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="D27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
     </row>
     <row r="28" ht="50.0" customHeight="true">
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" ht="50.0" customHeight="true">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
+    <row r="29" ht="25.0" customHeight="true">
+      <c r="B29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
     </row>
     <row r="30" ht="50.0" customHeight="true">
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" ht="25.0" customHeight="true">
-      <c r="B31" s="9" t="s">
+    <row r="31" ht="50.0" customHeight="true">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-    </row>
-    <row r="32" ht="45.0" customHeight="true">
+      <c r="J31" s="6"/>
+      <c r="K31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" ht="50.0" customHeight="true">
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="8" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
     </row>
-    <row r="33" ht="15.0" customHeight="true">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+    <row r="33" ht="25.0" customHeight="true">
+      <c r="B33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="6"/>
+      <c r="J33" s="8"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-    </row>
-    <row r="34" ht="22.0" customHeight="true">
-      <c r="B34" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" ht="45.0" customHeight="true">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
     </row>
     <row r="35" ht="25.0" customHeight="true">
       <c r="B35" s="9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1254,21 +1295,21 @@
     <row r="36" ht="45.0" customHeight="true">
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="8" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="8" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -1278,54 +1319,46 @@
     <row r="37" ht="45.0" customHeight="true">
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="8" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" ht="45.0" customHeight="true">
+    <row r="38" ht="15.0" customHeight="true">
       <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="I38" s="8"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="K38" s="8"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" ht="25.0" customHeight="true">
+    <row r="39" ht="22.0" customHeight="true">
       <c r="B39" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1341,253 +1374,261 @@
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" ht="50.0" customHeight="true">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-    </row>
-    <row r="41" ht="50.0" customHeight="true">
+    <row r="40" ht="25.0" customHeight="true">
+      <c r="B40" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+    </row>
+    <row r="41" ht="45.0" customHeight="true">
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="8" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" ht="50.0" customHeight="true">
+    <row r="42" ht="45.0" customHeight="true">
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="8" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" ht="50.0" customHeight="true">
+    <row r="43" ht="45.0" customHeight="true">
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="8" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" ht="25.0" customHeight="true">
-      <c r="B44" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-    </row>
-    <row r="45" ht="50.0" customHeight="true">
+    <row r="44" ht="45.0" customHeight="true">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" ht="45.0" customHeight="true">
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="8" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="8" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" ht="50.0" customHeight="true">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
+    <row r="46" ht="25.0" customHeight="true">
+      <c r="B46" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
     </row>
     <row r="47" ht="50.0" customHeight="true">
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" ht="25.0" customHeight="true">
-      <c r="B48" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-    </row>
-    <row r="49" ht="45.0" customHeight="true">
+    <row r="48" ht="50.0" customHeight="true">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" ht="50.0" customHeight="true">
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="8" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" ht="15.0" customHeight="true">
+    <row r="50" ht="50.0" customHeight="true">
       <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
+      <c r="C50" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="8"/>
+      <c r="I50" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="J50" s="6"/>
-      <c r="K50" s="8"/>
+      <c r="K50" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" ht="22.0" customHeight="true">
+    <row r="51" ht="25.0" customHeight="true">
       <c r="B51" s="9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -1603,213 +1644,205 @@
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
     </row>
-    <row r="52" ht="25.0" customHeight="true">
-      <c r="B52" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-    </row>
-    <row r="53" ht="45.0" customHeight="true">
+    <row r="52" ht="50.0" customHeight="true">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" ht="50.0" customHeight="true">
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="8" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" ht="45.0" customHeight="true">
+    <row r="54" ht="50.0" customHeight="true">
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="8" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" ht="45.0" customHeight="true">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-    </row>
-    <row r="56" ht="25.0" customHeight="true">
-      <c r="B56" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-    </row>
-    <row r="57" ht="50.0" customHeight="true">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J57" s="6"/>
-      <c r="K57" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-    </row>
-    <row r="58" ht="50.0" customHeight="true">
+    <row r="55" ht="25.0" customHeight="true">
+      <c r="B55" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+    </row>
+    <row r="56" ht="45.0" customHeight="true">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+    </row>
+    <row r="57" ht="25.0" customHeight="true">
+      <c r="B57" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+    </row>
+    <row r="58" ht="45.0" customHeight="true">
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="8" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="8" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" ht="50.0" customHeight="true">
+    <row r="59" ht="45.0" customHeight="true">
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="8" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="8" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" ht="50.0" customHeight="true">
+    <row r="60" ht="15.0" customHeight="true">
       <c r="B60" s="6"/>
-      <c r="C60" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="I60" s="8"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="K60" s="8"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" ht="25.0" customHeight="true">
+    <row r="61" ht="22.0" customHeight="true">
       <c r="B61" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -1825,139 +1858,147 @@
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
     </row>
-    <row r="62" ht="50.0" customHeight="true">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J62" s="6"/>
-      <c r="K62" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-    </row>
-    <row r="63" ht="50.0" customHeight="true">
+    <row r="62" ht="25.0" customHeight="true">
+      <c r="B62" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+    </row>
+    <row r="63" ht="45.0" customHeight="true">
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" ht="50.0" customHeight="true">
+    <row r="64" ht="45.0" customHeight="true">
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="8" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="8" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" ht="25.0" customHeight="true">
-      <c r="B65" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
+    <row r="65" ht="45.0" customHeight="true">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
     </row>
     <row r="66" ht="45.0" customHeight="true">
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="8" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="8" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" ht="15.0" customHeight="true">
+    <row r="67" ht="45.0" customHeight="true">
       <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
+      <c r="C67" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="8"/>
+      <c r="I67" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="J67" s="6"/>
-      <c r="K67" s="8"/>
+      <c r="K67" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" ht="22.0" customHeight="true">
+    <row r="68" ht="25.0" customHeight="true">
       <c r="B68" s="9" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -1973,79 +2014,85 @@
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
     </row>
-    <row r="69" ht="25.0" customHeight="true">
-      <c r="B69" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-    </row>
-    <row r="70" ht="45.0" customHeight="true">
+    <row r="69" ht="50.0" customHeight="true">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" s="6"/>
+      <c r="K69" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+    </row>
+    <row r="70" ht="50.0" customHeight="true">
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="8" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="8" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" ht="45.0" customHeight="true">
+    <row r="71" ht="50.0" customHeight="true">
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="8" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="8" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" ht="45.0" customHeight="true">
+    <row r="72" ht="50.0" customHeight="true">
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -2056,7 +2103,7 @@
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="8" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
@@ -2065,7 +2112,7 @@
     </row>
     <row r="73" ht="25.0" customHeight="true">
       <c r="B73" s="9" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -2084,21 +2131,21 @@
     <row r="74" ht="50.0" customHeight="true">
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="8" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="8" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -2108,21 +2155,21 @@
     <row r="75" ht="50.0" customHeight="true">
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="8" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="8" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
@@ -2132,185 +2179,137 @@
     <row r="76" ht="50.0" customHeight="true">
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="8" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="8" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" ht="50.0" customHeight="true">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J77" s="6"/>
-      <c r="K77" s="8" t="s">
+    <row r="77" ht="25.0" customHeight="true">
+      <c r="B77" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+    </row>
+    <row r="78" ht="45.0" customHeight="true">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-    </row>
-    <row r="78" ht="25.0" customHeight="true">
-      <c r="B78" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-    </row>
-    <row r="79" ht="50.0" customHeight="true">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J79" s="6"/>
-      <c r="K79" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-    </row>
-    <row r="80" ht="50.0" customHeight="true">
+      <c r="J78" s="6"/>
+      <c r="K78" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="79" ht="25.0" customHeight="true">
+      <c r="B79" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+    </row>
+    <row r="80" ht="45.0" customHeight="true">
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="8" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="8" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" ht="50.0" customHeight="true">
+    <row r="81" ht="45.0" customHeight="true">
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="8" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" ht="25.0" customHeight="true">
-      <c r="B82" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-    </row>
-    <row r="83" ht="45.0" customHeight="true">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J83" s="6"/>
-      <c r="K83" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="44">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -2329,35 +2328,32 @@
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="J12:K13"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="M12:M14"/>
     <mergeCell ref="N12:N14"/>
     <mergeCell ref="O12:O14"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:K13"/>
     <mergeCell ref="B17:O17"/>
     <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B29:O29"/>
     <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B34:O34"/>
     <mergeCell ref="B35:O35"/>
+    <mergeCell ref="B38:O38"/>
     <mergeCell ref="B39:O39"/>
-    <mergeCell ref="B44:O44"/>
-    <mergeCell ref="B48:O48"/>
-    <mergeCell ref="B50:O50"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="B46:O46"/>
     <mergeCell ref="B51:O51"/>
-    <mergeCell ref="B52:O52"/>
-    <mergeCell ref="B56:O56"/>
+    <mergeCell ref="B55:O55"/>
+    <mergeCell ref="B57:O57"/>
+    <mergeCell ref="B60:O60"/>
     <mergeCell ref="B61:O61"/>
-    <mergeCell ref="B65:O65"/>
-    <mergeCell ref="B67:O67"/>
+    <mergeCell ref="B62:O62"/>
     <mergeCell ref="B68:O68"/>
-    <mergeCell ref="B69:O69"/>
     <mergeCell ref="B73:O73"/>
-    <mergeCell ref="B78:O78"/>
-    <mergeCell ref="B82:O82"/>
+    <mergeCell ref="B77:O77"/>
+    <mergeCell ref="B79:O79"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/log-service/downloads_calendar/First_Level_Schedule_7675.xlsx
+++ b/log-service/downloads_calendar/First_Level_Schedule_7675.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="160">
   <si>
     <t>Оперативный календарно-сетевой график выполнения ПИР/ Исполнение плана Оперативного календарно-сетевого графика выполнения ПИР</t>
   </si>
@@ -26,13 +26,13 @@
     <t>Текущая дата (дата предоставления отчета):</t>
   </si>
   <si>
-    <t>24.06.2024</t>
+    <t>02.07.2024</t>
   </si>
   <si>
     <t>Объект капитального строительства:</t>
   </si>
   <si>
-    <t>Обустройство Байкаловского нефтегазоконденсатного месторождения. Обустройство кустовой площадки №2</t>
+    <t>Обустройство Байкаловского нефтегазоконденсатного месторождения. Инженерная подготовка кустовой площадки №1</t>
   </si>
   <si>
     <t>Подрядная организация:</t>
@@ -146,7 +146,7 @@
     <t>Инженерные изыскания (полевые работы)</t>
   </si>
   <si>
-    <t>03.09.2024</t>
+    <t>13.02.2025</t>
   </si>
   <si>
     <t>1.2</t>
@@ -155,10 +155,10 @@
     <t>Инженерные изыскания (камеральные работы) - выдача отчета</t>
   </si>
   <si>
-    <t>15.08.2024</t>
-  </si>
-  <si>
-    <t>18.10.2024</t>
+    <t>04.02.2025</t>
+  </si>
+  <si>
+    <t>05.05.2025</t>
   </si>
   <si>
     <t>1.3</t>
@@ -167,7 +167,7 @@
     <t>Инженерные изыскания (камеральные работы) согласование отчета</t>
   </si>
   <si>
-    <t>09.12.2024</t>
+    <t>10.06.2025</t>
   </si>
   <si>
     <t>1.4</t>
@@ -194,7 +194,10 @@
     <t>Рабочая документация (60%, выдача документации ОГ)</t>
   </si>
   <si>
-    <t>09.10.2024</t>
+    <t>11.04.2025</t>
+  </si>
+  <si>
+    <t>11.07.2025</t>
   </si>
   <si>
     <t>2.2</t>
@@ -203,7 +206,7 @@
     <t>Рабочая документация (30%, согласование документации с ОГ и УВЭ)</t>
   </si>
   <si>
-    <t>03.03.2025</t>
+    <t>01.09.2025</t>
   </si>
   <si>
     <t>2.3</t>
@@ -212,10 +215,10 @@
     <t>Рабочая документация  (5%, выдача сметной документации ОГ)</t>
   </si>
   <si>
-    <t>23.12.2024</t>
-  </si>
-  <si>
-    <t>07.02.2025</t>
+    <t>02.07.2025</t>
+  </si>
+  <si>
+    <t>11.08.2025</t>
   </si>
   <si>
     <t>2.4</t>
@@ -224,7 +227,7 @@
     <t>Рабочая документация  (5%, согласование сметной документации с ОГ и УВЭ)</t>
   </si>
   <si>
-    <t>03.04.2025</t>
+    <t>03.10.2025</t>
   </si>
   <si>
     <t>3. Проектная документация</t>
@@ -236,7 +239,7 @@
     <t>Проектная документация (60%, выдача документации ОГ)</t>
   </si>
   <si>
-    <t>11.02.2025</t>
+    <t>03.09.2025</t>
   </si>
   <si>
     <t>3.2</t>
@@ -245,7 +248,7 @@
     <t>Проектная документация (20%, согласование документации с ОГ и УВЭ)</t>
   </si>
   <si>
-    <t>02.05.2025</t>
+    <t>18.11.2025</t>
   </si>
   <si>
     <t>3.3</t>
@@ -254,7 +257,7 @@
     <t>Проектная документация (20%, проведение внешних экспертиз)</t>
   </si>
   <si>
-    <t>01.09.2025</t>
+    <t>18.03.2026</t>
   </si>
   <si>
     <t>4. Землеустроительные работы</t>
@@ -266,7 +269,7 @@
     <t>Землеустроительная документация</t>
   </si>
   <si>
-    <t>09.07.2025</t>
+    <t>03.02.2026</t>
   </si>
   <si>
     <t>5. Прочие работы</t>
@@ -284,7 +287,7 @@
     <t>Разработка рыбохозяйственного раздела</t>
   </si>
   <si>
-    <t>20.06.2025</t>
+    <t>13.01.2026</t>
   </si>
   <si>
     <t>Этап строительства 2</t>
@@ -296,24 +299,21 @@
     <t>6.1</t>
   </si>
   <si>
-    <t>14.01.2025</t>
+    <t>16.10.2025</t>
   </si>
   <si>
     <t>6.2</t>
   </si>
   <si>
-    <t>26.12.2024</t>
-  </si>
-  <si>
-    <t>02.04.2025</t>
+    <t>07.10.2025</t>
+  </si>
+  <si>
+    <t>04.12.2025</t>
   </si>
   <si>
     <t>6.3</t>
   </si>
   <si>
-    <t>03.06.2025</t>
-  </si>
-  <si>
     <t>6.4</t>
   </si>
   <si>
@@ -326,25 +326,28 @@
     <t>7.1</t>
   </si>
   <si>
-    <t>24.03.2025</t>
+    <t>25.11.2025</t>
+  </si>
+  <si>
+    <t>12.02.2026</t>
   </si>
   <si>
     <t>7.2</t>
   </si>
   <si>
-    <t>14.07.2025</t>
+    <t>06.04.2026</t>
   </si>
   <si>
     <t>7.3</t>
   </si>
   <si>
-    <t>14.05.2025</t>
+    <t>17.03.2026</t>
   </si>
   <si>
     <t>7.4</t>
   </si>
   <si>
-    <t>11.08.2025</t>
+    <t>05.05.2026</t>
   </si>
   <si>
     <t>8. Проектная документация</t>
@@ -353,19 +356,19 @@
     <t>8.1</t>
   </si>
   <si>
-    <t>17.07.2025</t>
+    <t>03.04.2026</t>
   </si>
   <si>
     <t>8.2</t>
   </si>
   <si>
-    <t>06.10.2025</t>
+    <t>16.06.2026</t>
   </si>
   <si>
     <t>8.3</t>
   </si>
   <si>
-    <t>03.02.2026</t>
+    <t>14.10.2026</t>
   </si>
   <si>
     <t>9. Землеустроительные работы</t>
@@ -374,7 +377,7 @@
     <t>9.1</t>
   </si>
   <si>
-    <t>09.01.2026</t>
+    <t>03.09.2026</t>
   </si>
   <si>
     <t>10. Прочие работы</t>
@@ -386,34 +389,34 @@
     <t>10.2</t>
   </si>
   <si>
+    <t>04.08.2026</t>
+  </si>
+  <si>
+    <t>Этап строительства 3</t>
+  </si>
+  <si>
+    <t>11. Инженерные изыскания</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
     <t>03.12.2025</t>
   </si>
   <si>
-    <t>Этап строительства 3</t>
-  </si>
-  <si>
-    <t>11. Инженерные изыскания</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>05.03.2025</t>
-  </si>
-  <si>
     <t>11.2</t>
   </si>
   <si>
-    <t>28.02.2025</t>
-  </si>
-  <si>
-    <t>14.04.2025</t>
+    <t>17.11.2025</t>
+  </si>
+  <si>
+    <t>19.01.2026</t>
   </si>
   <si>
     <t>11.3</t>
   </si>
   <si>
-    <t>02.06.2025</t>
+    <t>02.03.2026</t>
   </si>
   <si>
     <t>11.4</t>
@@ -428,49 +431,46 @@
     <t>12.1</t>
   </si>
   <si>
-    <t>13.05.2025</t>
+    <t>31.12.2025</t>
+  </si>
+  <si>
+    <t>18.05.2026</t>
   </si>
   <si>
     <t>12.2</t>
   </si>
   <si>
-    <t>03.07.2025</t>
+    <t>06.07.2026</t>
   </si>
   <si>
     <t>12.3</t>
   </si>
   <si>
-    <t>10.06.2025</t>
-  </si>
-  <si>
-    <t>04.08.2025</t>
+    <t>07.05.2026</t>
   </si>
   <si>
     <t>12.4</t>
   </si>
   <si>
-    <t>09.09.2025</t>
-  </si>
-  <si>
     <t>13. Проектная документация</t>
   </si>
   <si>
     <t>13.1</t>
   </si>
   <si>
-    <t>30.04.2025</t>
+    <t>03.07.2026</t>
   </si>
   <si>
     <t>13.2</t>
   </si>
   <si>
-    <t>15.09.2025</t>
+    <t>16.09.2026</t>
   </si>
   <si>
     <t>13.3</t>
   </si>
   <si>
-    <t>13.01.2026</t>
+    <t>14.01.2027</t>
   </si>
   <si>
     <t>14. Землеустроительные работы</t>
@@ -479,6 +479,9 @@
     <t>14.1</t>
   </si>
   <si>
+    <t>03.12.2026</t>
+  </si>
+  <si>
     <t>15. Прочие работы</t>
   </si>
   <si>
@@ -488,7 +491,7 @@
     <t>15.2</t>
   </si>
   <si>
-    <t>03.11.2025</t>
+    <t>02.11.2026</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1066,7 @@
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -1073,21 +1076,21 @@
     <row r="26" ht="50.0" customHeight="true">
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -1097,21 +1100,21 @@
     <row r="27" ht="50.0" customHeight="true">
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -1121,10 +1124,10 @@
     <row r="28" ht="50.0" customHeight="true">
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1135,7 +1138,7 @@
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -1144,7 +1147,7 @@
     </row>
     <row r="29" ht="25.0" customHeight="true">
       <c r="B29" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1163,21 +1166,21 @@
     <row r="30" ht="50.0" customHeight="true">
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -1187,21 +1190,21 @@
     <row r="31" ht="50.0" customHeight="true">
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -1211,21 +1214,21 @@
     <row r="32" ht="50.0" customHeight="true">
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -1234,7 +1237,7 @@
     </row>
     <row r="33" ht="25.0" customHeight="true">
       <c r="B33" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1253,21 +1256,21 @@
     <row r="34" ht="45.0" customHeight="true">
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -1276,7 +1279,7 @@
     </row>
     <row r="35" ht="25.0" customHeight="true">
       <c r="B35" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1295,21 +1298,21 @@
     <row r="36" ht="45.0" customHeight="true">
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -1319,21 +1322,21 @@
     <row r="37" ht="45.0" customHeight="true">
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -1358,7 +1361,7 @@
     </row>
     <row r="39" ht="22.0" customHeight="true">
       <c r="B39" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1376,7 +1379,7 @@
     </row>
     <row r="40" ht="25.0" customHeight="true">
       <c r="B40" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -1395,7 +1398,7 @@
     <row r="41" ht="45.0" customHeight="true">
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>43</v>
@@ -1409,7 +1412,7 @@
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -1419,7 +1422,7 @@
     <row r="42" ht="45.0" customHeight="true">
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>46</v>
@@ -1429,11 +1432,11 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -1443,7 +1446,7 @@
     <row r="43" ht="45.0" customHeight="true">
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>50</v>
@@ -1453,11 +1456,11 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="8" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -1547,7 +1550,7 @@
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -1557,21 +1560,21 @@
     <row r="48" ht="50.0" customHeight="true">
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -1581,21 +1584,21 @@
     <row r="49" ht="50.0" customHeight="true">
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="8" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -1605,21 +1608,21 @@
     <row r="50" ht="50.0" customHeight="true">
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -1628,7 +1631,7 @@
     </row>
     <row r="51" ht="25.0" customHeight="true">
       <c r="B51" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -1647,21 +1650,21 @@
     <row r="52" ht="50.0" customHeight="true">
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="8" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -1671,21 +1674,21 @@
     <row r="53" ht="50.0" customHeight="true">
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -1695,21 +1698,21 @@
     <row r="54" ht="50.0" customHeight="true">
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -1718,7 +1721,7 @@
     </row>
     <row r="55" ht="25.0" customHeight="true">
       <c r="B55" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -1737,21 +1740,21 @@
     <row r="56" ht="45.0" customHeight="true">
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -1760,7 +1763,7 @@
     </row>
     <row r="57" ht="25.0" customHeight="true">
       <c r="B57" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -1779,21 +1782,21 @@
     <row r="58" ht="45.0" customHeight="true">
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -1803,21 +1806,21 @@
     <row r="59" ht="45.0" customHeight="true">
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -1842,7 +1845,7 @@
     </row>
     <row r="61" ht="22.0" customHeight="true">
       <c r="B61" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -1860,7 +1863,7 @@
     </row>
     <row r="62" ht="25.0" customHeight="true">
       <c r="B62" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -1879,7 +1882,7 @@
     <row r="63" ht="45.0" customHeight="true">
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>43</v>
@@ -1889,11 +1892,11 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -1903,7 +1906,7 @@
     <row r="64" ht="45.0" customHeight="true">
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>46</v>
@@ -1913,11 +1916,11 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -1927,7 +1930,7 @@
     <row r="65" ht="45.0" customHeight="true">
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>50</v>
@@ -1937,11 +1940,11 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -1951,7 +1954,7 @@
     <row r="66" ht="45.0" customHeight="true">
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>53</v>
@@ -1975,7 +1978,7 @@
     <row r="67" ht="45.0" customHeight="true">
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>56</v>
@@ -1998,7 +2001,7 @@
     </row>
     <row r="68" ht="25.0" customHeight="true">
       <c r="B68" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -2017,7 +2020,7 @@
     <row r="69" ht="50.0" customHeight="true">
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>59</v>
@@ -2027,11 +2030,11 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="8" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -2041,21 +2044,21 @@
     <row r="70" ht="50.0" customHeight="true">
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -2065,21 +2068,21 @@
     <row r="71" ht="50.0" customHeight="true">
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -2089,21 +2092,21 @@
     <row r="72" ht="50.0" customHeight="true">
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="8" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
@@ -2134,18 +2137,18 @@
         <v>147</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -2158,14 +2161,14 @@
         <v>149</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="8" t="s">
@@ -2182,7 +2185,7 @@
         <v>151</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -2224,18 +2227,18 @@
         <v>154</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="8" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
@@ -2244,7 +2247,7 @@
     </row>
     <row r="79" ht="25.0" customHeight="true">
       <c r="B79" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -2263,21 +2266,21 @@
     <row r="80" ht="45.0" customHeight="true">
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="8" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
@@ -2287,21 +2290,21 @@
     <row r="81" ht="45.0" customHeight="true">
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
